--- a/Code/Results/Cases/Case_7_49/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_49/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.005556576779976</v>
+        <v>1.011774185405522</v>
       </c>
       <c r="D2">
-        <v>1.021284939937608</v>
+        <v>1.026900787111242</v>
       </c>
       <c r="E2">
-        <v>1.017275905273312</v>
+        <v>1.023118369054126</v>
       </c>
       <c r="F2">
-        <v>1.019985441812196</v>
+        <v>1.026024997681377</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043030607746441</v>
+        <v>1.046147286988457</v>
       </c>
       <c r="J2">
-        <v>1.027572352328797</v>
+        <v>1.033608346589655</v>
       </c>
       <c r="K2">
-        <v>1.032455496923888</v>
+        <v>1.037997653025315</v>
       </c>
       <c r="L2">
-        <v>1.028499693696015</v>
+        <v>1.034264756304622</v>
       </c>
       <c r="M2">
-        <v>1.031173195849084</v>
+        <v>1.037133289183832</v>
       </c>
       <c r="N2">
-        <v>1.029031622933305</v>
+        <v>1.035076188998351</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.012189664351038</v>
+        <v>1.015945088288887</v>
       </c>
       <c r="D3">
-        <v>1.026242601032504</v>
+        <v>1.029945635110234</v>
       </c>
       <c r="E3">
-        <v>1.023106415085581</v>
+        <v>1.026728494552819</v>
       </c>
       <c r="F3">
-        <v>1.026558707310786</v>
+        <v>1.030275490349719</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044871890759581</v>
+        <v>1.047305389737156</v>
       </c>
       <c r="J3">
-        <v>1.03235345403082</v>
+        <v>1.036010314697142</v>
       </c>
       <c r="K3">
-        <v>1.036550362460902</v>
+        <v>1.040209173577525</v>
       </c>
       <c r="L3">
-        <v>1.033451940816039</v>
+        <v>1.037030430712655</v>
       </c>
       <c r="M3">
-        <v>1.036862678234256</v>
+        <v>1.040535108677953</v>
       </c>
       <c r="N3">
-        <v>1.03381951434814</v>
+        <v>1.037481568176055</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.016365136573574</v>
+        <v>1.018592399928454</v>
       </c>
       <c r="D4">
-        <v>1.029365298983114</v>
+        <v>1.031880739065935</v>
       </c>
       <c r="E4">
-        <v>1.026782969677887</v>
+        <v>1.029025637501346</v>
       </c>
       <c r="F4">
-        <v>1.030705119982654</v>
+        <v>1.032980668343288</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046019059688595</v>
+        <v>1.048031939345521</v>
       </c>
       <c r="J4">
-        <v>1.035359286446164</v>
+        <v>1.037532177845879</v>
       </c>
       <c r="K4">
-        <v>1.039121772409524</v>
+        <v>1.041609035144327</v>
       </c>
       <c r="L4">
-        <v>1.036568546699687</v>
+        <v>1.038785928734633</v>
       </c>
       <c r="M4">
-        <v>1.040446563985523</v>
+        <v>1.042696696341727</v>
       </c>
       <c r="N4">
-        <v>1.036829615390288</v>
+        <v>1.039005592545024</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.018094000016546</v>
+        <v>1.019693393387894</v>
       </c>
       <c r="D5">
-        <v>1.030658615387109</v>
+        <v>1.03268608845179</v>
       </c>
       <c r="E5">
-        <v>1.028306699964255</v>
+        <v>1.029982351158401</v>
       </c>
       <c r="F5">
-        <v>1.032423966843866</v>
+        <v>1.03410747482996</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046491134378157</v>
+        <v>1.048332030709221</v>
       </c>
       <c r="J5">
-        <v>1.036602881847563</v>
+        <v>1.038164433063972</v>
       </c>
       <c r="K5">
-        <v>1.040184892209679</v>
+        <v>1.04219027476243</v>
       </c>
       <c r="L5">
-        <v>1.037858736338676</v>
+        <v>1.039516020025888</v>
       </c>
       <c r="M5">
-        <v>1.041931003131164</v>
+        <v>1.043596237654773</v>
       </c>
       <c r="N5">
-        <v>1.038074976839799</v>
+        <v>1.039638745638048</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.018382768422623</v>
+        <v>1.01987756645128</v>
       </c>
       <c r="D6">
-        <v>1.030874653517561</v>
+        <v>1.032820837908111</v>
       </c>
       <c r="E6">
-        <v>1.028561288524553</v>
+        <v>1.030142467872069</v>
       </c>
       <c r="F6">
-        <v>1.032711179417426</v>
+        <v>1.034296068090577</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046569811085969</v>
+        <v>1.048382106829676</v>
       </c>
       <c r="J6">
-        <v>1.036810537953946</v>
+        <v>1.038270155611454</v>
       </c>
       <c r="K6">
-        <v>1.040362368002658</v>
+        <v>1.042287447039283</v>
       </c>
       <c r="L6">
-        <v>1.038074217787141</v>
+        <v>1.039638147862503</v>
       </c>
       <c r="M6">
-        <v>1.042178975144041</v>
+        <v>1.043746744000189</v>
       </c>
       <c r="N6">
-        <v>1.038282927841671</v>
+        <v>1.039744618323674</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.016388340098156</v>
+        <v>1.018607157838011</v>
       </c>
       <c r="D7">
-        <v>1.02938265563274</v>
+        <v>1.031891531970522</v>
       </c>
       <c r="E7">
-        <v>1.026803414426257</v>
+        <v>1.029038456157848</v>
       </c>
       <c r="F7">
-        <v>1.030728181158594</v>
+        <v>1.032995765377458</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046025407123405</v>
+        <v>1.048035970056648</v>
       </c>
       <c r="J7">
-        <v>1.035375980997131</v>
+        <v>1.037540655406072</v>
       </c>
       <c r="K7">
-        <v>1.039136047152842</v>
+        <v>1.041616829982249</v>
       </c>
       <c r="L7">
-        <v>1.03658586372407</v>
+        <v>1.038795715062117</v>
       </c>
       <c r="M7">
-        <v>1.040466485026183</v>
+        <v>1.042708751786829</v>
       </c>
       <c r="N7">
-        <v>1.036846333649432</v>
+        <v>1.039014082144325</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.007823277610542</v>
+        <v>1.013194681993119</v>
       </c>
       <c r="D8">
-        <v>1.022978642870311</v>
+        <v>1.02793722582999</v>
       </c>
       <c r="E8">
-        <v>1.019266974908405</v>
+        <v>1.024346653984574</v>
       </c>
       <c r="F8">
-        <v>1.022229858085024</v>
+        <v>1.027471050068927</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043662294716384</v>
+        <v>1.04654346814989</v>
       </c>
       <c r="J8">
-        <v>1.029206951784919</v>
+        <v>1.034426937267564</v>
       </c>
       <c r="K8">
-        <v>1.033856096044786</v>
+        <v>1.038751613420007</v>
       </c>
       <c r="L8">
-        <v>1.030192137116557</v>
+        <v>1.035206631963106</v>
       </c>
       <c r="M8">
-        <v>1.033116901116209</v>
+        <v>1.038291334341661</v>
       </c>
       <c r="N8">
-        <v>1.030668543708141</v>
+        <v>1.035895942168912</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9917685903144039</v>
+        <v>1.003243403104353</v>
       </c>
       <c r="D9">
-        <v>1.010994949281196</v>
+        <v>1.020689023406539</v>
       </c>
       <c r="E9">
-        <v>1.005194675952837</v>
+        <v>1.015767614526173</v>
       </c>
       <c r="F9">
-        <v>1.006372199907071</v>
+        <v>1.017372593692921</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039139430852295</v>
+        <v>1.04373335368154</v>
       </c>
       <c r="J9">
-        <v>1.017615407279825</v>
+        <v>1.028682146038606</v>
       </c>
       <c r="K9">
-        <v>1.023912124693902</v>
+        <v>1.033455122383089</v>
       </c>
       <c r="L9">
-        <v>1.018204031661962</v>
+        <v>1.028609950102179</v>
       </c>
       <c r="M9">
-        <v>1.019362731744396</v>
+        <v>1.030189963291896</v>
       </c>
       <c r="N9">
-        <v>1.019060537880281</v>
+        <v>1.030142992677472</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9803114384789199</v>
+        <v>0.9963027979285044</v>
       </c>
       <c r="D10">
-        <v>1.002464435345939</v>
+        <v>1.015651881146023</v>
       </c>
       <c r="E10">
-        <v>0.9951945673927075</v>
+        <v>1.009818264240078</v>
       </c>
       <c r="F10">
-        <v>0.9951085746531848</v>
+        <v>1.010370684455284</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035852391795977</v>
+        <v>1.04173089630381</v>
       </c>
       <c r="J10">
-        <v>1.009328589059097</v>
+        <v>1.024663876085636</v>
       </c>
       <c r="K10">
-        <v>1.016789335759946</v>
+        <v>1.029744171894081</v>
       </c>
       <c r="L10">
-        <v>1.00965113086372</v>
+        <v>1.024012481165633</v>
       </c>
       <c r="M10">
-        <v>1.009566710509578</v>
+        <v>1.024555183990504</v>
       </c>
       <c r="N10">
-        <v>1.010761951427169</v>
+        <v>1.026119016320267</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9751439365257017</v>
+        <v>0.9932179857080788</v>
       </c>
       <c r="D11">
-        <v>0.9986239452276853</v>
+        <v>1.01341814503573</v>
       </c>
       <c r="E11">
-        <v>0.9906956589188641</v>
+        <v>1.007182659010738</v>
       </c>
       <c r="F11">
-        <v>0.9900419424067569</v>
+        <v>1.007268749748165</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034356762326772</v>
+        <v>1.040831295189143</v>
       </c>
       <c r="J11">
-        <v>1.005588604818856</v>
+        <v>1.022875651687742</v>
       </c>
       <c r="K11">
-        <v>1.013571858666367</v>
+        <v>1.028091374844179</v>
       </c>
       <c r="L11">
-        <v>1.005795200786181</v>
+        <v>1.021970380302507</v>
       </c>
       <c r="M11">
-        <v>1.005154128626577</v>
+        <v>1.022054877722251</v>
       </c>
       <c r="N11">
-        <v>1.007016655980324</v>
+        <v>1.024328252438615</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9731907986557917</v>
+        <v>0.992059587936025</v>
       </c>
       <c r="D12">
-        <v>0.9971736072718406</v>
+        <v>1.012580168384442</v>
       </c>
       <c r="E12">
-        <v>0.9889970730965919</v>
+        <v>1.006194290691113</v>
       </c>
       <c r="F12">
-        <v>0.9881290677290897</v>
+        <v>1.006105472232526</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03378959550691</v>
+        <v>1.040492082566605</v>
       </c>
       <c r="J12">
-        <v>1.004174763928902</v>
+        <v>1.022203843919945</v>
       </c>
       <c r="K12">
-        <v>1.012355157575163</v>
+        <v>1.027470256789104</v>
       </c>
       <c r="L12">
-        <v>1.004338152002221</v>
+        <v>1.021203772337643</v>
       </c>
       <c r="M12">
-        <v>1.003487285524604</v>
+        <v>1.021116628431684</v>
       </c>
       <c r="N12">
-        <v>1.005600807274136</v>
+        <v>1.023655490626731</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9736113246547535</v>
+        <v>0.9923086469994642</v>
       </c>
       <c r="D13">
-        <v>0.997485817638457</v>
+        <v>1.012760297404699</v>
       </c>
       <c r="E13">
-        <v>0.9893627064396123</v>
+        <v>1.006406731346283</v>
       </c>
       <c r="F13">
-        <v>0.9885408265711246</v>
+        <v>1.006355509932731</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033911793821611</v>
+        <v>1.040565076755451</v>
       </c>
       <c r="J13">
-        <v>1.004479184795271</v>
+        <v>1.02234829752912</v>
       </c>
       <c r="K13">
-        <v>1.012617148041312</v>
+        <v>1.027603819279663</v>
       </c>
       <c r="L13">
-        <v>1.004651847990965</v>
+        <v>1.021368584109128</v>
       </c>
       <c r="M13">
-        <v>1.003846124837259</v>
+        <v>1.021318324588906</v>
       </c>
       <c r="N13">
-        <v>1.005905660453053</v>
+        <v>1.0238001493766</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9749831935518724</v>
+        <v>0.9931224921545944</v>
       </c>
       <c r="D14">
-        <v>0.9985045564574869</v>
+        <v>1.013349048452254</v>
       </c>
       <c r="E14">
-        <v>0.9905558272833767</v>
+        <v>1.007101154363231</v>
       </c>
       <c r="F14">
-        <v>0.9898844691215335</v>
+        <v>1.007172822242596</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034310121946787</v>
+        <v>1.040803360052198</v>
       </c>
       <c r="J14">
-        <v>1.005472250463241</v>
+        <v>1.02282027647429</v>
       </c>
       <c r="K14">
-        <v>1.013471735829875</v>
+        <v>1.02804018159201</v>
       </c>
       <c r="L14">
-        <v>1.005675277906185</v>
+        <v>1.021907179276736</v>
       </c>
       <c r="M14">
-        <v>1.005016927540407</v>
+        <v>1.021977518725679</v>
       </c>
       <c r="N14">
-        <v>1.006900136388178</v>
+        <v>1.024272798586009</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9758238966353658</v>
+        <v>0.9936222453324164</v>
       </c>
       <c r="D15">
-        <v>0.9991290239430609</v>
+        <v>1.013710690665051</v>
       </c>
       <c r="E15">
-        <v>0.9912872377161872</v>
+        <v>1.007527753531203</v>
       </c>
       <c r="F15">
-        <v>0.9907081589216434</v>
+        <v>1.007674909829985</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034553980689501</v>
+        <v>1.040949498260181</v>
       </c>
       <c r="J15">
-        <v>1.006080786537719</v>
+        <v>1.023110063513903</v>
       </c>
       <c r="K15">
-        <v>1.013995365240657</v>
+        <v>1.028308076186131</v>
       </c>
       <c r="L15">
-        <v>1.00630250281407</v>
+        <v>1.022237943496621</v>
       </c>
       <c r="M15">
-        <v>1.005734543736722</v>
+        <v>1.022382394055524</v>
       </c>
       <c r="N15">
-        <v>1.007509536653682</v>
+        <v>1.024562997156458</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9806498168111693</v>
+        <v>0.9965058001323612</v>
       </c>
       <c r="D16">
-        <v>1.002716078522085</v>
+        <v>1.015798987806319</v>
       </c>
       <c r="E16">
-        <v>0.9954894123174755</v>
+        <v>1.009991889489472</v>
       </c>
       <c r="F16">
-        <v>0.9954406372760238</v>
+        <v>1.010575026944365</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035950065307839</v>
+        <v>1.041789899991797</v>
       </c>
       <c r="J16">
-        <v>1.009573449607915</v>
+        <v>1.024781509848317</v>
       </c>
       <c r="K16">
-        <v>1.01699993177673</v>
+        <v>1.029852870111576</v>
       </c>
       <c r="L16">
-        <v>1.009903668414424</v>
+        <v>1.024146895922342</v>
       </c>
       <c r="M16">
-        <v>1.009855781874311</v>
+        <v>1.024719810682485</v>
       </c>
       <c r="N16">
-        <v>1.011007159706051</v>
+        <v>1.026236817136383</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9836199139288175</v>
+        <v>0.9982928726298129</v>
       </c>
       <c r="D17">
-        <v>1.004925675683125</v>
+        <v>1.017094584765091</v>
       </c>
       <c r="E17">
-        <v>0.9980787032534053</v>
+        <v>1.011521339744063</v>
       </c>
       <c r="F17">
-        <v>0.9983568447836417</v>
+        <v>1.012375055237736</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036805921092235</v>
+        <v>1.042308234542461</v>
       </c>
       <c r="J17">
-        <v>1.011722440547878</v>
+        <v>1.025816811662708</v>
       </c>
       <c r="K17">
-        <v>1.018847887667896</v>
+        <v>1.030809378919773</v>
       </c>
       <c r="L17">
-        <v>1.012120503832709</v>
+        <v>1.025330329435452</v>
       </c>
       <c r="M17">
-        <v>1.012393745932417</v>
+        <v>1.026169529120379</v>
       </c>
       <c r="N17">
-        <v>1.013159202459641</v>
+        <v>1.027273589198102</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9853325954098319</v>
+        <v>0.9993276165867433</v>
       </c>
       <c r="D18">
-        <v>1.006200469092135</v>
+        <v>1.017845233042844</v>
       </c>
       <c r="E18">
-        <v>0.9995728626430538</v>
+        <v>1.012407733274887</v>
       </c>
       <c r="F18">
-        <v>1.000039723347729</v>
+        <v>1.013418260587536</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037298204994249</v>
+        <v>1.042607444581294</v>
       </c>
       <c r="J18">
-        <v>1.012961405526595</v>
+        <v>1.026416049845457</v>
       </c>
       <c r="K18">
-        <v>1.019913025848995</v>
+        <v>1.031362883523928</v>
       </c>
       <c r="L18">
-        <v>1.013398973109515</v>
+        <v>1.026015675779205</v>
       </c>
       <c r="M18">
-        <v>1.013857771150173</v>
+        <v>1.027009328418346</v>
       </c>
       <c r="N18">
-        <v>1.01439992691074</v>
+        <v>1.027873678367804</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9859133059983535</v>
+        <v>0.9996791623361754</v>
       </c>
       <c r="D19">
-        <v>1.006632811892051</v>
+        <v>1.018100338517415</v>
       </c>
       <c r="E19">
-        <v>1.000079657284002</v>
+        <v>1.012709015397785</v>
       </c>
       <c r="F19">
-        <v>1.000610541871146</v>
+        <v>1.013772842994083</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037464908599586</v>
+        <v>1.042708942409444</v>
       </c>
       <c r="J19">
-        <v>1.013381452995722</v>
+        <v>1.026619597856655</v>
       </c>
       <c r="K19">
-        <v>1.020274093685879</v>
+        <v>1.03155087480133</v>
       </c>
       <c r="L19">
-        <v>1.013832479833582</v>
+        <v>1.026248535561772</v>
       </c>
       <c r="M19">
-        <v>1.014354257990101</v>
+        <v>1.02729470817672</v>
       </c>
       <c r="N19">
-        <v>1.014820570895453</v>
+        <v>1.028077515440526</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9833033093186609</v>
+        <v>0.9981019297241611</v>
       </c>
       <c r="D20">
-        <v>1.004690069853506</v>
+        <v>1.016956104520499</v>
       </c>
       <c r="E20">
-        <v>0.9978025799002925</v>
+        <v>1.011357837860657</v>
       </c>
       <c r="F20">
-        <v>0.9980458518526348</v>
+        <v>1.01218262829118</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036714817080369</v>
+        <v>1.04225294668557</v>
       </c>
       <c r="J20">
-        <v>1.01149338717027</v>
+        <v>1.025706215382194</v>
       </c>
       <c r="K20">
-        <v>1.018650948334304</v>
+        <v>1.030707212880747</v>
       </c>
       <c r="L20">
-        <v>1.011884178655267</v>
+        <v>1.025203870749809</v>
       </c>
       <c r="M20">
-        <v>1.012123149852316</v>
+        <v>1.02601459080853</v>
       </c>
       <c r="N20">
-        <v>1.012929823799965</v>
+        <v>1.027162835858184</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9745801656401212</v>
+        <v>0.992883186967853</v>
       </c>
       <c r="D21">
-        <v>0.9982052356958149</v>
+        <v>1.013175907188215</v>
       </c>
       <c r="E21">
-        <v>0.990205260157786</v>
+        <v>1.006896926965586</v>
       </c>
       <c r="F21">
-        <v>0.989489673977168</v>
+        <v>1.0069324546549</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034193151628742</v>
+        <v>1.04073333271687</v>
       </c>
       <c r="J21">
-        <v>1.005180513580257</v>
+        <v>1.022681502458427</v>
       </c>
       <c r="K21">
-        <v>1.013220690401267</v>
+        <v>1.027911884864481</v>
       </c>
       <c r="L21">
-        <v>1.005374603648344</v>
+        <v>1.021748802527222</v>
       </c>
       <c r="M21">
-        <v>1.004672941602419</v>
+        <v>1.021783669139256</v>
       </c>
       <c r="N21">
-        <v>1.006607985205358</v>
+        <v>1.024133827495126</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9688990507888764</v>
+        <v>0.9895289446543163</v>
       </c>
       <c r="D22">
-        <v>0.9939891849818837</v>
+        <v>1.010751117573356</v>
       </c>
       <c r="E22">
-        <v>0.9852682284097739</v>
+        <v>1.004037621260397</v>
       </c>
       <c r="F22">
-        <v>0.9839298508038482</v>
+        <v>1.003567051172689</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032539989562527</v>
+        <v>1.039748516824433</v>
       </c>
       <c r="J22">
-        <v>1.001067698713675</v>
+        <v>1.020735703293385</v>
       </c>
       <c r="K22">
-        <v>1.009680665191276</v>
+        <v>1.026112559612036</v>
       </c>
       <c r="L22">
-        <v>1.001137284670605</v>
+        <v>1.019529514196641</v>
       </c>
       <c r="M22">
-        <v>0.9998265269934853</v>
+        <v>1.019068173738817</v>
       </c>
       <c r="N22">
-        <v>1.002489329669918</v>
+        <v>1.022185265072083</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9719303243698838</v>
+        <v>0.9913142301472737</v>
       </c>
       <c r="D23">
-        <v>0.9962379915398412</v>
+        <v>1.012041223828188</v>
       </c>
       <c r="E23">
-        <v>0.9879014141510948</v>
+        <v>1.005558721472517</v>
       </c>
       <c r="F23">
-        <v>0.9868951933182126</v>
+        <v>1.005357415134653</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033423054892177</v>
+        <v>1.040273431860348</v>
       </c>
       <c r="J23">
-        <v>1.003262271411943</v>
+        <v>1.021771497604463</v>
       </c>
       <c r="K23">
-        <v>1.011569795733564</v>
+        <v>1.027070480753229</v>
       </c>
       <c r="L23">
-        <v>1.003397949124104</v>
+        <v>1.020710578656452</v>
       </c>
       <c r="M23">
-        <v>1.002411858866484</v>
+        <v>1.020513112638583</v>
       </c>
       <c r="N23">
-        <v>1.004687018913139</v>
+        <v>1.02322253032989</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9834464300745916</v>
+        <v>0.9981882321234063</v>
       </c>
       <c r="D24">
-        <v>1.004796573204111</v>
+        <v>1.017018693366982</v>
       </c>
       <c r="E24">
-        <v>0.9979273978474331</v>
+        <v>1.011431734934017</v>
       </c>
       <c r="F24">
-        <v>0.9981864319124999</v>
+        <v>1.012269598474431</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036756004397541</v>
+        <v>1.042277938535074</v>
       </c>
       <c r="J24">
-        <v>1.011596931220327</v>
+        <v>1.025756203383364</v>
       </c>
       <c r="K24">
-        <v>1.018739976006425</v>
+        <v>1.030753390925531</v>
       </c>
       <c r="L24">
-        <v>1.011991008727301</v>
+        <v>1.025261027196738</v>
       </c>
       <c r="M24">
-        <v>1.012245470867383</v>
+        <v>1.026084618644395</v>
       </c>
       <c r="N24">
-        <v>1.013033514894449</v>
+        <v>1.027212894848049</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9960434843008116</v>
+        <v>1.005867885182829</v>
       </c>
       <c r="D25">
-        <v>1.014182778593467</v>
+        <v>1.022597715886629</v>
       </c>
       <c r="E25">
-        <v>1.008934904460447</v>
+        <v>1.018024459764019</v>
       </c>
       <c r="F25">
-        <v>1.010585906397943</v>
+        <v>1.020028854118896</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040354177041403</v>
+        <v>1.044481970456856</v>
       </c>
       <c r="J25">
-        <v>1.020704738588081</v>
+        <v>1.030199372530655</v>
       </c>
       <c r="K25">
-        <v>1.026564843665197</v>
+        <v>1.034855074707248</v>
       </c>
       <c r="L25">
-        <v>1.021396083057791</v>
+        <v>1.030349267468978</v>
       </c>
       <c r="M25">
-        <v>1.023022082730124</v>
+        <v>1.032324005345019</v>
       </c>
       <c r="N25">
-        <v>1.022154256393346</v>
+        <v>1.031662373805168</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_49/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_49/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,46 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.011774185405522</v>
+        <v>1.007492538119654</v>
       </c>
       <c r="D2">
-        <v>1.026900787111242</v>
+        <v>1.022329915188479</v>
       </c>
       <c r="E2">
-        <v>1.023118369054126</v>
+        <v>1.021371867947946</v>
       </c>
       <c r="F2">
-        <v>1.026024997681377</v>
+        <v>1.028903068936025</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046147286988457</v>
+        <v>1.043822337559548</v>
       </c>
       <c r="J2">
-        <v>1.033608346589655</v>
+        <v>1.029451435016033</v>
       </c>
       <c r="K2">
-        <v>1.037997653025315</v>
+        <v>1.033486683148915</v>
       </c>
       <c r="L2">
-        <v>1.034264756304622</v>
+        <v>1.0325412765216</v>
       </c>
       <c r="M2">
-        <v>1.037133289183832</v>
+        <v>1.039973904453849</v>
       </c>
       <c r="N2">
-        <v>1.035076188998351</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.013713641035002</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.040209054466087</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +480,46 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.015945088288887</v>
+        <v>1.01081610238101</v>
       </c>
       <c r="D3">
-        <v>1.029945635110234</v>
+        <v>1.024588156346367</v>
       </c>
       <c r="E3">
-        <v>1.026728494552819</v>
+        <v>1.023984194382602</v>
       </c>
       <c r="F3">
-        <v>1.030275490349719</v>
+        <v>1.031547381491936</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047305389737156</v>
+        <v>1.044536872468048</v>
       </c>
       <c r="J3">
-        <v>1.036010314697142</v>
+        <v>1.031016190313779</v>
       </c>
       <c r="K3">
-        <v>1.040209173577525</v>
+        <v>1.0349158039676</v>
       </c>
       <c r="L3">
-        <v>1.037030430712655</v>
+        <v>1.034319121417369</v>
       </c>
       <c r="M3">
-        <v>1.040535108677953</v>
+        <v>1.041791913206764</v>
       </c>
       <c r="N3">
-        <v>1.037481568176055</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.014241366274985</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.041647885646059</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +527,46 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.018592399928454</v>
+        <v>1.01293095510902</v>
       </c>
       <c r="D4">
-        <v>1.031880739065935</v>
+        <v>1.0260277336748</v>
       </c>
       <c r="E4">
-        <v>1.029025637501346</v>
+        <v>1.025652336217142</v>
       </c>
       <c r="F4">
-        <v>1.032980668343288</v>
+        <v>1.033237924334714</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048031939345521</v>
+        <v>1.044983454934277</v>
       </c>
       <c r="J4">
-        <v>1.037532177845879</v>
+        <v>1.032009571509934</v>
       </c>
       <c r="K4">
-        <v>1.041609035144327</v>
+        <v>1.035821856551206</v>
       </c>
       <c r="L4">
-        <v>1.038785928734633</v>
+        <v>1.035450712666767</v>
       </c>
       <c r="M4">
-        <v>1.042696696341727</v>
+        <v>1.042951087660936</v>
       </c>
       <c r="N4">
-        <v>1.039005592545024</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.01457628795307</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.042565292467468</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +574,46 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.019693393387894</v>
+        <v>1.013811706341208</v>
       </c>
       <c r="D5">
-        <v>1.03268608845179</v>
+        <v>1.026627850903876</v>
       </c>
       <c r="E5">
-        <v>1.029982351158401</v>
+        <v>1.026348429802633</v>
       </c>
       <c r="F5">
-        <v>1.03410747482996</v>
+        <v>1.033943839485017</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048332030709221</v>
+        <v>1.045167467745453</v>
       </c>
       <c r="J5">
-        <v>1.038164433063972</v>
+        <v>1.032422697911249</v>
       </c>
       <c r="K5">
-        <v>1.04219027476243</v>
+        <v>1.036198363731002</v>
       </c>
       <c r="L5">
-        <v>1.039516020025888</v>
+        <v>1.03592202498973</v>
       </c>
       <c r="M5">
-        <v>1.043596237654773</v>
+        <v>1.043434375270115</v>
       </c>
       <c r="N5">
-        <v>1.039638745638048</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.014715548490801</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.042947781014136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +621,46 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.01987756645128</v>
+        <v>1.013959105885175</v>
       </c>
       <c r="D6">
-        <v>1.032820837908111</v>
+        <v>1.026728318210315</v>
       </c>
       <c r="E6">
-        <v>1.030142467872069</v>
+        <v>1.026465005958578</v>
       </c>
       <c r="F6">
-        <v>1.034296068090577</v>
+        <v>1.034062088323031</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048382106829676</v>
+        <v>1.045198146818922</v>
       </c>
       <c r="J6">
-        <v>1.038270155611454</v>
+        <v>1.032491802747048</v>
       </c>
       <c r="K6">
-        <v>1.042287447039283</v>
+        <v>1.036261325231748</v>
       </c>
       <c r="L6">
-        <v>1.039638147862503</v>
+        <v>1.03600090445208</v>
       </c>
       <c r="M6">
-        <v>1.043746744000189</v>
+        <v>1.043515287611888</v>
       </c>
       <c r="N6">
-        <v>1.039744618323674</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.014738841404777</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.043011817488318</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +668,46 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.018607157838011</v>
+        <v>1.01294275620904</v>
       </c>
       <c r="D7">
-        <v>1.031891531970522</v>
+        <v>1.026035772300415</v>
       </c>
       <c r="E7">
-        <v>1.029038456157848</v>
+        <v>1.02566165769805</v>
       </c>
       <c r="F7">
-        <v>1.032995765377458</v>
+        <v>1.033247375468467</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048035970056648</v>
+        <v>1.04498592832198</v>
       </c>
       <c r="J7">
-        <v>1.037540655406072</v>
+        <v>1.032015109259044</v>
       </c>
       <c r="K7">
-        <v>1.041616829982249</v>
+        <v>1.035826904638018</v>
       </c>
       <c r="L7">
-        <v>1.038795715062117</v>
+        <v>1.035457027569613</v>
       </c>
       <c r="M7">
-        <v>1.042708751786829</v>
+        <v>1.042957561090822</v>
       </c>
       <c r="N7">
-        <v>1.039014082144325</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.01457815477585</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.042570415738549</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +715,46 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.013194681993119</v>
+        <v>1.008623280889919</v>
       </c>
       <c r="D8">
-        <v>1.02793722582999</v>
+        <v>1.023097645674024</v>
       </c>
       <c r="E8">
-        <v>1.024346653984574</v>
+        <v>1.022259389827353</v>
       </c>
       <c r="F8">
-        <v>1.027471050068927</v>
+        <v>1.029801045553205</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04654346814989</v>
+        <v>1.044067110669047</v>
       </c>
       <c r="J8">
-        <v>1.034426937267564</v>
+        <v>1.029984263336222</v>
       </c>
       <c r="K8">
-        <v>1.038751613420007</v>
+        <v>1.033973576368147</v>
       </c>
       <c r="L8">
-        <v>1.035206631963106</v>
+        <v>1.033146054306173</v>
       </c>
       <c r="M8">
-        <v>1.038291334341661</v>
+        <v>1.040591924126839</v>
       </c>
       <c r="N8">
-        <v>1.035895942168912</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.013893362038334</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.040698175631738</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +762,46 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.003243403104353</v>
+        <v>1.000728107988256</v>
       </c>
       <c r="D9">
-        <v>1.020689023406539</v>
+        <v>1.01774961827929</v>
       </c>
       <c r="E9">
-        <v>1.015767614526173</v>
+        <v>1.016088330521617</v>
       </c>
       <c r="F9">
-        <v>1.017372593692921</v>
+        <v>1.023565574570689</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04373335368154</v>
+        <v>1.042325159664617</v>
       </c>
       <c r="J9">
-        <v>1.028682146038606</v>
+        <v>1.026255181059005</v>
       </c>
       <c r="K9">
-        <v>1.033455122383089</v>
+        <v>1.030561137728868</v>
       </c>
       <c r="L9">
-        <v>1.028609950102179</v>
+        <v>1.028925669195584</v>
       </c>
       <c r="M9">
-        <v>1.030189963291896</v>
+        <v>1.036287546454847</v>
       </c>
       <c r="N9">
-        <v>1.030142992677472</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.012635181200876</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.037291542162998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +809,46 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9963027979285044</v>
+        <v>0.9953165002206205</v>
       </c>
       <c r="D10">
-        <v>1.015651881146023</v>
+        <v>1.014108830231955</v>
       </c>
       <c r="E10">
-        <v>1.009818264240078</v>
+        <v>1.011932360390267</v>
       </c>
       <c r="F10">
-        <v>1.010370684455284</v>
+        <v>1.019428623139356</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04173089630381</v>
+        <v>1.041106427827023</v>
       </c>
       <c r="J10">
-        <v>1.024663876085636</v>
+        <v>1.023717178644696</v>
       </c>
       <c r="K10">
-        <v>1.029744171894081</v>
+        <v>1.028227933811054</v>
       </c>
       <c r="L10">
-        <v>1.024012481165633</v>
+        <v>1.026089463494438</v>
       </c>
       <c r="M10">
-        <v>1.024555183990504</v>
+        <v>1.033455730007981</v>
       </c>
       <c r="N10">
-        <v>1.026119016320267</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.011781414821946</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.035101985729902</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +856,46 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9932179857080788</v>
+        <v>0.9933886224344231</v>
       </c>
       <c r="D11">
-        <v>1.01341814503573</v>
+        <v>1.012879540964164</v>
       </c>
       <c r="E11">
-        <v>1.007182659010738</v>
+        <v>1.010782619801382</v>
       </c>
       <c r="F11">
-        <v>1.007268749748165</v>
+        <v>1.018703071150429</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040831295189143</v>
+        <v>1.040788124602279</v>
       </c>
       <c r="J11">
-        <v>1.022875651687742</v>
+        <v>1.023039052604998</v>
       </c>
       <c r="K11">
-        <v>1.028091374844179</v>
+        <v>1.027562587833509</v>
       </c>
       <c r="L11">
-        <v>1.021970380302507</v>
+        <v>1.025504016750855</v>
       </c>
       <c r="M11">
-        <v>1.022054877722251</v>
+        <v>1.033280688864799</v>
       </c>
       <c r="N11">
-        <v>1.024328252438615</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.011579076902768</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.035401222667755</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +903,46 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.992059587936025</v>
+        <v>0.9928468077954762</v>
       </c>
       <c r="D12">
-        <v>1.012580168384442</v>
+        <v>1.012566565754214</v>
       </c>
       <c r="E12">
-        <v>1.006194290691113</v>
+        <v>1.010608595221647</v>
       </c>
       <c r="F12">
-        <v>1.006105472232526</v>
+        <v>1.018833748193164</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040492082566605</v>
+        <v>1.040757350409749</v>
       </c>
       <c r="J12">
-        <v>1.022203843919945</v>
+        <v>1.022957019468414</v>
       </c>
       <c r="K12">
-        <v>1.027470256789104</v>
+        <v>1.027456906392668</v>
       </c>
       <c r="L12">
-        <v>1.021203772337643</v>
+        <v>1.025535334959452</v>
       </c>
       <c r="M12">
-        <v>1.021116628431684</v>
+        <v>1.033608804834416</v>
       </c>
       <c r="N12">
-        <v>1.023655490626731</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.011573063287353</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.035988095516398</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +950,46 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9923086469994642</v>
+        <v>0.993334587503465</v>
       </c>
       <c r="D13">
-        <v>1.012760297404699</v>
+        <v>1.012936066003074</v>
       </c>
       <c r="E13">
-        <v>1.006406731346283</v>
+        <v>1.011174618327051</v>
       </c>
       <c r="F13">
-        <v>1.006355509932731</v>
+        <v>1.019644264314474</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040565076755451</v>
+        <v>1.040949007551496</v>
       </c>
       <c r="J13">
-        <v>1.02234829752912</v>
+        <v>1.023330079378226</v>
       </c>
       <c r="K13">
-        <v>1.027603819279663</v>
+        <v>1.027776341809646</v>
       </c>
       <c r="L13">
-        <v>1.021368584109128</v>
+        <v>1.02604749081306</v>
       </c>
       <c r="M13">
-        <v>1.021318324588906</v>
+        <v>1.034361742117711</v>
       </c>
       <c r="N13">
-        <v>1.0238001493766</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.011718281807464</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.036860737484237</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +997,46 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9931224921545944</v>
+        <v>0.994140219780057</v>
       </c>
       <c r="D14">
-        <v>1.013349048452254</v>
+        <v>1.013502115956446</v>
       </c>
       <c r="E14">
-        <v>1.007101154363231</v>
+        <v>1.011902321719189</v>
       </c>
       <c r="F14">
-        <v>1.007172822242596</v>
+        <v>1.020515610655568</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040803360052198</v>
+        <v>1.041182523244834</v>
       </c>
       <c r="J14">
-        <v>1.02282027647429</v>
+        <v>1.023794826447055</v>
       </c>
       <c r="K14">
-        <v>1.02804018159201</v>
+        <v>1.028190457493661</v>
       </c>
       <c r="L14">
-        <v>1.021907179276736</v>
+        <v>1.026619894177001</v>
       </c>
       <c r="M14">
-        <v>1.021977518725679</v>
+        <v>1.035077208727808</v>
       </c>
       <c r="N14">
-        <v>1.024272798586009</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.01188753630494</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.037599928490887</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1044,46 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9936222453324164</v>
+        <v>0.9945628097042104</v>
       </c>
       <c r="D15">
-        <v>1.013710690665051</v>
+        <v>1.013790819685943</v>
       </c>
       <c r="E15">
-        <v>1.007527753531203</v>
+        <v>1.012248019331879</v>
       </c>
       <c r="F15">
-        <v>1.007674909829985</v>
+        <v>1.020891662041707</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040949498260181</v>
+        <v>1.041289549046224</v>
       </c>
       <c r="J15">
-        <v>1.023110063513903</v>
+        <v>1.024011074898147</v>
       </c>
       <c r="K15">
-        <v>1.028308076186131</v>
+        <v>1.028386755039642</v>
       </c>
       <c r="L15">
-        <v>1.022237943496621</v>
+        <v>1.026871928628664</v>
       </c>
       <c r="M15">
-        <v>1.022382394055524</v>
+        <v>1.035360260082481</v>
       </c>
       <c r="N15">
-        <v>1.024562997156458</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.011963050561552</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.03786124421461</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1091,46 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9965058001323612</v>
+        <v>0.9967503141695873</v>
       </c>
       <c r="D16">
-        <v>1.015798987806319</v>
+        <v>1.015251459329181</v>
       </c>
       <c r="E16">
-        <v>1.009991889489472</v>
+        <v>1.013895567660813</v>
       </c>
       <c r="F16">
-        <v>1.010575026944365</v>
+        <v>1.022515176488374</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041789899991797</v>
+        <v>1.041776811930331</v>
       </c>
       <c r="J16">
-        <v>1.024781509848317</v>
+        <v>1.025016260775521</v>
       </c>
       <c r="K16">
-        <v>1.029852870111576</v>
+        <v>1.029314812324328</v>
       </c>
       <c r="L16">
-        <v>1.024146895922342</v>
+        <v>1.027982430723814</v>
       </c>
       <c r="M16">
-        <v>1.024719810682485</v>
+        <v>1.036453953249162</v>
       </c>
       <c r="N16">
-        <v>1.026236817136383</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.01229735229936</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.038686921024139</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1138,46 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9982928726298129</v>
+        <v>0.998008911456294</v>
       </c>
       <c r="D17">
-        <v>1.017094584765091</v>
+        <v>1.016077821833597</v>
       </c>
       <c r="E17">
-        <v>1.011521339744063</v>
+        <v>1.014780173263322</v>
       </c>
       <c r="F17">
-        <v>1.012375055237736</v>
+        <v>1.023300300339411</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042308234542461</v>
+        <v>1.042026605088793</v>
       </c>
       <c r="J17">
-        <v>1.025816811662708</v>
+        <v>1.025543819874631</v>
       </c>
       <c r="K17">
-        <v>1.030809378919773</v>
+        <v>1.029809701305948</v>
       </c>
       <c r="L17">
-        <v>1.025330329435452</v>
+        <v>1.028533922110851</v>
       </c>
       <c r="M17">
-        <v>1.026169529120379</v>
+        <v>1.036911763069982</v>
       </c>
       <c r="N17">
-        <v>1.027273589198102</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.012464964600221</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.038919543976989</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1185,46 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9993276165867433</v>
+        <v>0.9985785508892161</v>
       </c>
       <c r="D18">
-        <v>1.017845233042844</v>
+        <v>1.016426780951805</v>
       </c>
       <c r="E18">
-        <v>1.012407733274887</v>
+        <v>1.015063764591823</v>
       </c>
       <c r="F18">
-        <v>1.013418260587536</v>
+        <v>1.023383109615623</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042607444581294</v>
+        <v>1.042090449193824</v>
       </c>
       <c r="J18">
-        <v>1.026416049845457</v>
+        <v>1.025695366624709</v>
       </c>
       <c r="K18">
-        <v>1.031362883523928</v>
+        <v>1.029967865560943</v>
       </c>
       <c r="L18">
-        <v>1.026015675779205</v>
+        <v>1.028627446933335</v>
       </c>
       <c r="M18">
-        <v>1.027009328418346</v>
+        <v>1.036810068198655</v>
       </c>
       <c r="N18">
-        <v>1.027873678367804</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.012499587560896</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.038601011256857</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1232,46 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9996791623361754</v>
+        <v>0.9985209823297829</v>
       </c>
       <c r="D19">
-        <v>1.018100338517415</v>
+        <v>1.016341476607067</v>
       </c>
       <c r="E19">
-        <v>1.012709015397785</v>
+        <v>1.014794476531106</v>
       </c>
       <c r="F19">
-        <v>1.013772842994083</v>
+        <v>1.022815855825482</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042708942409444</v>
+        <v>1.041987084939159</v>
       </c>
       <c r="J19">
-        <v>1.026619597856655</v>
+        <v>1.025505027091688</v>
       </c>
       <c r="K19">
-        <v>1.03155087480133</v>
+        <v>1.029820909466814</v>
       </c>
       <c r="L19">
-        <v>1.026248535561772</v>
+        <v>1.02829943181532</v>
       </c>
       <c r="M19">
-        <v>1.02729470817672</v>
+        <v>1.036189549928356</v>
       </c>
       <c r="N19">
-        <v>1.028077515440526</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.01241486251626</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.037784084519992</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1279,46 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9981019297241611</v>
+        <v>0.9967186712224873</v>
       </c>
       <c r="D20">
-        <v>1.016956104520499</v>
+        <v>1.015051107301038</v>
       </c>
       <c r="E20">
-        <v>1.011357837860657</v>
+        <v>1.01300846246864</v>
       </c>
       <c r="F20">
-        <v>1.01218262829118</v>
+        <v>1.020501750653691</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.04225294668557</v>
+        <v>1.041425709317435</v>
       </c>
       <c r="J20">
-        <v>1.025706215382194</v>
+        <v>1.024376671231285</v>
       </c>
       <c r="K20">
-        <v>1.030707212880747</v>
+        <v>1.028834365244432</v>
       </c>
       <c r="L20">
-        <v>1.025203870749809</v>
+        <v>1.026826366448286</v>
       </c>
       <c r="M20">
-        <v>1.02601459080853</v>
+        <v>1.03419343287618</v>
       </c>
       <c r="N20">
-        <v>1.027162835858184</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.012003411965618</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.035675209995577</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1326,46 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.992883186967853</v>
+        <v>0.9925763991329531</v>
       </c>
       <c r="D21">
-        <v>1.013175907188215</v>
+        <v>1.012259295559529</v>
       </c>
       <c r="E21">
-        <v>1.006896926965586</v>
+        <v>1.009777418431801</v>
       </c>
       <c r="F21">
-        <v>1.0069324546549</v>
+        <v>1.017207265727678</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.04073333271687</v>
+        <v>1.040456037042916</v>
       </c>
       <c r="J21">
-        <v>1.022681502458427</v>
+        <v>1.022387810733506</v>
       </c>
       <c r="K21">
-        <v>1.027911884864481</v>
+        <v>1.027012075382964</v>
       </c>
       <c r="L21">
-        <v>1.021748802527222</v>
+        <v>1.024575892421929</v>
       </c>
       <c r="M21">
-        <v>1.021783669139256</v>
+        <v>1.031869813229724</v>
       </c>
       <c r="N21">
-        <v>1.024133827495126</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.011329644538733</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.033795178244628</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1373,46 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9895289446543163</v>
+        <v>0.989952850582469</v>
       </c>
       <c r="D22">
-        <v>1.010751117573356</v>
+        <v>1.010499326325333</v>
       </c>
       <c r="E22">
-        <v>1.004037621260397</v>
+        <v>1.007758814091173</v>
       </c>
       <c r="F22">
-        <v>1.003567051172689</v>
+        <v>1.015177088234027</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039748516824433</v>
+        <v>1.039841578387309</v>
       </c>
       <c r="J22">
-        <v>1.020735703293385</v>
+        <v>1.021140446014932</v>
       </c>
       <c r="K22">
-        <v>1.026112559612036</v>
+        <v>1.025865619976712</v>
       </c>
       <c r="L22">
-        <v>1.019529514196641</v>
+        <v>1.023178118553869</v>
       </c>
       <c r="M22">
-        <v>1.019068173738817</v>
+        <v>1.030453762922272</v>
       </c>
       <c r="N22">
-        <v>1.022185265072083</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.010908463521904</v>
+      </c>
+      <c r="O22">
+        <v>1.029999999999999</v>
+      </c>
+      <c r="P22">
+        <v>1.032674457921993</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1420,46 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9913142301472737</v>
+        <v>0.991348246637456</v>
       </c>
       <c r="D23">
-        <v>1.012041223828188</v>
+        <v>1.011434973675708</v>
       </c>
       <c r="E23">
-        <v>1.005558721472517</v>
+        <v>1.008831713689768</v>
       </c>
       <c r="F23">
-        <v>1.005357415134653</v>
+        <v>1.016255931928249</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040273431860348</v>
+        <v>1.040169111896199</v>
       </c>
       <c r="J23">
-        <v>1.021771497604463</v>
+        <v>1.021804022068403</v>
       </c>
       <c r="K23">
-        <v>1.027070480753229</v>
+        <v>1.026475609305624</v>
       </c>
       <c r="L23">
-        <v>1.020710578656452</v>
+        <v>1.023921413056425</v>
       </c>
       <c r="M23">
-        <v>1.020513112638583</v>
+        <v>1.031206572411007</v>
       </c>
       <c r="N23">
-        <v>1.02322253032989</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.011132529033281</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.033270262466598</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1467,46 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9981882321234063</v>
+        <v>0.9967416054010394</v>
       </c>
       <c r="D24">
-        <v>1.017018693366982</v>
+        <v>1.015060552808774</v>
       </c>
       <c r="E24">
-        <v>1.011431734934017</v>
+        <v>1.012994592737974</v>
       </c>
       <c r="F24">
-        <v>1.012269598474431</v>
+        <v>1.020446409438908</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042277938535074</v>
+        <v>1.04141912058191</v>
       </c>
       <c r="J24">
-        <v>1.025756203383364</v>
+        <v>1.024365664080952</v>
       </c>
       <c r="K24">
-        <v>1.030753390925531</v>
+        <v>1.028828251393817</v>
       </c>
       <c r="L24">
-        <v>1.025261027196738</v>
+        <v>1.02679728801741</v>
       </c>
       <c r="M24">
-        <v>1.026084618644395</v>
+        <v>1.034123731622248</v>
       </c>
       <c r="N24">
-        <v>1.027212894848049</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.01199739106386</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.035579018072282</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.005867885182829</v>
+        <v>1.002804303624368</v>
       </c>
       <c r="D25">
-        <v>1.022597715886629</v>
+        <v>1.01915313914165</v>
       </c>
       <c r="E25">
-        <v>1.018024459764019</v>
+        <v>1.017705369851852</v>
       </c>
       <c r="F25">
-        <v>1.020028854118896</v>
+        <v>1.025197670745612</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044481970456856</v>
+        <v>1.042790365036979</v>
       </c>
       <c r="J25">
-        <v>1.030199372530655</v>
+        <v>1.027237658930505</v>
       </c>
       <c r="K25">
-        <v>1.034855074707248</v>
+        <v>1.031461228977898</v>
       </c>
       <c r="L25">
-        <v>1.030349267468978</v>
+        <v>1.030034912426434</v>
       </c>
       <c r="M25">
-        <v>1.032324005345019</v>
+        <v>1.037417024357752</v>
       </c>
       <c r="N25">
-        <v>1.031662373805168</v>
+        <v>1.012966743982758</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.038185451636022</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_49/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_49/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,46 +439,55 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.007492538119654</v>
+        <v>1.007409954382843</v>
       </c>
       <c r="D2">
-        <v>1.022329915188479</v>
+        <v>1.021896288789937</v>
       </c>
       <c r="E2">
-        <v>1.021371867947946</v>
+        <v>1.021309044810321</v>
       </c>
       <c r="F2">
-        <v>1.028903068936025</v>
+        <v>1.028851401796215</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.043822337559548</v>
+        <v>1.043669640410178</v>
       </c>
       <c r="J2">
-        <v>1.029451435016033</v>
+        <v>1.029371271468059</v>
       </c>
       <c r="K2">
-        <v>1.033486683148915</v>
+        <v>1.033058774397301</v>
       </c>
       <c r="L2">
-        <v>1.0325412765216</v>
+        <v>1.032479283320746</v>
       </c>
       <c r="M2">
-        <v>1.039973904453849</v>
+        <v>1.039922907411737</v>
       </c>
       <c r="N2">
-        <v>1.013713641035002</v>
+        <v>1.014980485415013</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.040209054466087</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.04016869370908</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.020900417605311</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -480,46 +495,55 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.01081610238101</v>
+        <v>1.010618907558854</v>
       </c>
       <c r="D3">
-        <v>1.024588156346367</v>
+        <v>1.023986122534216</v>
       </c>
       <c r="E3">
-        <v>1.023984194382602</v>
+        <v>1.023828394347736</v>
       </c>
       <c r="F3">
-        <v>1.031547381491936</v>
+        <v>1.031420956952274</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.044536872468048</v>
+        <v>1.044304353554097</v>
       </c>
       <c r="J3">
-        <v>1.031016190313779</v>
+        <v>1.030824217629451</v>
       </c>
       <c r="K3">
-        <v>1.0349158039676</v>
+        <v>1.034321026312456</v>
       </c>
       <c r="L3">
-        <v>1.034319121417369</v>
+        <v>1.03416520093416</v>
       </c>
       <c r="M3">
-        <v>1.041791913206764</v>
+        <v>1.041666986196098</v>
       </c>
       <c r="N3">
-        <v>1.014241366274985</v>
+        <v>1.015370110498705</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.041647885646059</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.041549014443601</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.021138206950406</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -527,46 +551,55 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.01293095510902</v>
+        <v>1.012661522538516</v>
       </c>
       <c r="D4">
-        <v>1.0260277336748</v>
+        <v>1.025319005138996</v>
       </c>
       <c r="E4">
-        <v>1.025652336217142</v>
+        <v>1.025437870740649</v>
       </c>
       <c r="F4">
-        <v>1.033237924334714</v>
+        <v>1.033064367276217</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.044983454934277</v>
+        <v>1.044700322210537</v>
       </c>
       <c r="J4">
-        <v>1.032009571509934</v>
+        <v>1.031746798509168</v>
       </c>
       <c r="K4">
-        <v>1.035821856551206</v>
+        <v>1.035121161732549</v>
       </c>
       <c r="L4">
-        <v>1.035450712666767</v>
+        <v>1.035238678990264</v>
       </c>
       <c r="M4">
-        <v>1.042951087660936</v>
+        <v>1.042779463053151</v>
       </c>
       <c r="N4">
-        <v>1.01457628795307</v>
+        <v>1.015617461101248</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.042565292467468</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.042429463472526</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.021286439812529</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,46 +607,55 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.013811706341208</v>
+        <v>1.013512346250233</v>
       </c>
       <c r="D5">
-        <v>1.026627850903876</v>
+        <v>1.025874795450695</v>
       </c>
       <c r="E5">
-        <v>1.026348429802633</v>
+        <v>1.026109646674798</v>
       </c>
       <c r="F5">
-        <v>1.033943839485017</v>
+        <v>1.033750753557316</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.045167467745453</v>
+        <v>1.044863297553214</v>
       </c>
       <c r="J5">
-        <v>1.032422697911249</v>
+        <v>1.032130519283299</v>
       </c>
       <c r="K5">
-        <v>1.036198363731002</v>
+        <v>1.035453620124201</v>
       </c>
       <c r="L5">
-        <v>1.03592202498973</v>
+        <v>1.035685877569861</v>
       </c>
       <c r="M5">
-        <v>1.043434375270115</v>
+        <v>1.043243382280125</v>
       </c>
       <c r="N5">
-        <v>1.014715548490801</v>
+        <v>1.015720326306759</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.042947781014136</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.042796623363595</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.021347423940756</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,46 +663,55 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.013959105885175</v>
+        <v>1.013654746164229</v>
       </c>
       <c r="D6">
-        <v>1.026728318210315</v>
+        <v>1.02596785051581</v>
       </c>
       <c r="E6">
-        <v>1.026465005958578</v>
+        <v>1.026222159669827</v>
       </c>
       <c r="F6">
-        <v>1.034062088323031</v>
+        <v>1.033865739841829</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.045198146818922</v>
+        <v>1.044890458238462</v>
       </c>
       <c r="J6">
-        <v>1.032491802747048</v>
+        <v>1.03219470749584</v>
       </c>
       <c r="K6">
-        <v>1.036261325231748</v>
+        <v>1.035509213320704</v>
       </c>
       <c r="L6">
-        <v>1.03600090445208</v>
+        <v>1.035760726511377</v>
       </c>
       <c r="M6">
-        <v>1.043515287611888</v>
+        <v>1.04332105775198</v>
       </c>
       <c r="N6">
-        <v>1.014738841404777</v>
+        <v>1.015737532639196</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.043011817488318</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.042858098093925</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.021357585718943</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -668,46 +719,55 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.01294275620904</v>
+        <v>1.012679427569791</v>
       </c>
       <c r="D7">
-        <v>1.026035772300415</v>
+        <v>1.025331490598549</v>
       </c>
       <c r="E7">
-        <v>1.02566165769805</v>
+        <v>1.025452263692694</v>
       </c>
       <c r="F7">
-        <v>1.033247375468467</v>
+        <v>1.033077864657107</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.04498592832198</v>
+        <v>1.044705703401881</v>
       </c>
       <c r="J7">
-        <v>1.032015109259044</v>
+        <v>1.031758286687211</v>
       </c>
       <c r="K7">
-        <v>1.035826904638018</v>
+        <v>1.035130603384813</v>
       </c>
       <c r="L7">
-        <v>1.035457027569613</v>
+        <v>1.035250006999129</v>
       </c>
       <c r="M7">
-        <v>1.042957561090822</v>
+        <v>1.042789936997358</v>
       </c>
       <c r="N7">
-        <v>1.01457815477585</v>
+        <v>1.01564628533768</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.042570415738549</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.04243775287495</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.021288713339246</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -715,46 +775,55 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.008623280889919</v>
+        <v>1.008521575515587</v>
       </c>
       <c r="D8">
-        <v>1.023097645674024</v>
+        <v>1.022622179245509</v>
       </c>
       <c r="E8">
-        <v>1.022259389827353</v>
+        <v>1.022181459374632</v>
       </c>
       <c r="F8">
-        <v>1.029801045553205</v>
+        <v>1.029737123081177</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.044067110669047</v>
+        <v>1.043897055670192</v>
       </c>
       <c r="J8">
-        <v>1.029984263336222</v>
+        <v>1.029885440056984</v>
       </c>
       <c r="K8">
-        <v>1.033973576368147</v>
+        <v>1.033504195541441</v>
       </c>
       <c r="L8">
-        <v>1.033146054306173</v>
+        <v>1.033069122863368</v>
       </c>
       <c r="M8">
-        <v>1.040591924126839</v>
+        <v>1.040528806173487</v>
       </c>
       <c r="N8">
-        <v>1.013893362038334</v>
+        <v>1.015196612911171</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.040698175631738</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.040648222015595</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.020986454447726</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -762,46 +831,55 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.000728107988256</v>
+        <v>1.000905984876631</v>
       </c>
       <c r="D9">
-        <v>1.01774961827929</v>
+        <v>1.01767943271666</v>
       </c>
       <c r="E9">
-        <v>1.016088330521617</v>
+        <v>1.016236820688164</v>
       </c>
       <c r="F9">
-        <v>1.023565574570689</v>
+        <v>1.023683931474672</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.042325159664617</v>
+        <v>1.042347288238258</v>
       </c>
       <c r="J9">
-        <v>1.026255181059005</v>
+        <v>1.026426790996574</v>
       </c>
       <c r="K9">
-        <v>1.030561137728868</v>
+        <v>1.030492040789841</v>
       </c>
       <c r="L9">
-        <v>1.028925669195584</v>
+        <v>1.029071847182637</v>
       </c>
       <c r="M9">
-        <v>1.036287546454847</v>
+        <v>1.036404094505918</v>
       </c>
       <c r="N9">
-        <v>1.012635181200876</v>
+        <v>1.014278314694848</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.037291542162998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.037383782538126</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.020405305023336</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -809,46 +887,55 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9953165002206205</v>
+        <v>0.995717879416659</v>
       </c>
       <c r="D10">
-        <v>1.014108830231955</v>
+        <v>1.01433979960824</v>
       </c>
       <c r="E10">
-        <v>1.011932360390267</v>
+        <v>1.012261814814716</v>
       </c>
       <c r="F10">
-        <v>1.019428623139356</v>
+        <v>1.019692753659556</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.041106427827023</v>
+        <v>1.041274483562972</v>
       </c>
       <c r="J10">
-        <v>1.023717178644696</v>
+        <v>1.024102428877703</v>
       </c>
       <c r="K10">
-        <v>1.028227933811054</v>
+        <v>1.028454883026147</v>
       </c>
       <c r="L10">
-        <v>1.026089463494438</v>
+        <v>1.026413152297289</v>
       </c>
       <c r="M10">
-        <v>1.033455730007981</v>
+        <v>1.033715325173947</v>
       </c>
       <c r="N10">
-        <v>1.011781414821946</v>
+        <v>1.013773284963607</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.035101985729902</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.035307426512136</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.020005480219388</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -856,46 +943,55 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9933886224344231</v>
+        <v>0.9939029579639237</v>
       </c>
       <c r="D11">
-        <v>1.012879540964164</v>
+        <v>1.013236380914108</v>
       </c>
       <c r="E11">
-        <v>1.010782619801382</v>
+        <v>1.011203146885364</v>
       </c>
       <c r="F11">
-        <v>1.018703071150429</v>
+        <v>1.019040300237179</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.040788124602279</v>
+        <v>1.041021217392685</v>
       </c>
       <c r="J11">
-        <v>1.023039052604998</v>
+        <v>1.023531599275296</v>
       </c>
       <c r="K11">
-        <v>1.027562587833509</v>
+        <v>1.02791292219323</v>
       </c>
       <c r="L11">
-        <v>1.025504016750855</v>
+        <v>1.025916836313774</v>
       </c>
       <c r="M11">
-        <v>1.033280688864799</v>
+        <v>1.033611860712699</v>
       </c>
       <c r="N11">
-        <v>1.011579076902768</v>
+        <v>1.013866939966122</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.035401222667755</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.035663175684116</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.019929122687199</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,46 +999,55 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9928468077954762</v>
+        <v>0.9933940664122881</v>
       </c>
       <c r="D12">
-        <v>1.012566565754214</v>
+        <v>1.012955987941714</v>
       </c>
       <c r="E12">
-        <v>1.010608595221647</v>
+        <v>1.011054968838929</v>
       </c>
       <c r="F12">
-        <v>1.018833748193164</v>
+        <v>1.019191721864255</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.040757350409749</v>
+        <v>1.041007522580509</v>
       </c>
       <c r="J12">
-        <v>1.022957019468414</v>
+        <v>1.02348065657286</v>
       </c>
       <c r="K12">
-        <v>1.027456906392668</v>
+        <v>1.027839111011561</v>
       </c>
       <c r="L12">
-        <v>1.025535334959452</v>
+        <v>1.025973394207978</v>
       </c>
       <c r="M12">
-        <v>1.033608804834416</v>
+        <v>1.033960249337087</v>
       </c>
       <c r="N12">
-        <v>1.011573063287353</v>
+        <v>1.013970183384527</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.035988095516398</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.036265989331778</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.019937431603224</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -950,46 +1055,55 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.993334587503465</v>
+        <v>0.9938462944385082</v>
       </c>
       <c r="D13">
-        <v>1.012936066003074</v>
+        <v>1.01328136716112</v>
       </c>
       <c r="E13">
-        <v>1.011174618327051</v>
+        <v>1.01159112767279</v>
       </c>
       <c r="F13">
-        <v>1.019644264314474</v>
+        <v>1.019978326980634</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.040949007551496</v>
+        <v>1.041176213040425</v>
       </c>
       <c r="J13">
-        <v>1.023330079378226</v>
+        <v>1.023819809970491</v>
       </c>
       <c r="K13">
-        <v>1.027776341809646</v>
+        <v>1.028115270270962</v>
       </c>
       <c r="L13">
-        <v>1.02604749081306</v>
+        <v>1.02645627903329</v>
       </c>
       <c r="M13">
-        <v>1.034361742117711</v>
+        <v>1.034689744464052</v>
       </c>
       <c r="N13">
-        <v>1.011718281807464</v>
+        <v>1.014052521177052</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.036860737484237</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.037120029697086</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.020010832853354</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,46 +1111,55 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.994140219780057</v>
+        <v>0.9945966994003501</v>
       </c>
       <c r="D14">
-        <v>1.013502115956446</v>
+        <v>1.013782472798529</v>
       </c>
       <c r="E14">
-        <v>1.011902321719189</v>
+        <v>1.012273380358759</v>
       </c>
       <c r="F14">
-        <v>1.020515610655568</v>
+        <v>1.020813259197464</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.019999999999999</v>
+      </c>
       <c r="I14">
-        <v>1.041182523244834</v>
+        <v>1.041375969450939</v>
       </c>
       <c r="J14">
-        <v>1.023794826447055</v>
+        <v>1.024231980561065</v>
       </c>
       <c r="K14">
-        <v>1.028190457493661</v>
+        <v>1.028465704110629</v>
       </c>
       <c r="L14">
-        <v>1.026619894177001</v>
+        <v>1.026984162238495</v>
       </c>
       <c r="M14">
-        <v>1.035077208727808</v>
+        <v>1.035369528385955</v>
       </c>
       <c r="N14">
-        <v>1.01188753630494</v>
+        <v>1.014101192462615</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.037599928490887</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.037830981574285</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.020091330378154</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1044,46 +1167,55 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9945628097042104</v>
+        <v>0.9949915528012314</v>
       </c>
       <c r="D15">
-        <v>1.013790819685943</v>
+        <v>1.014039050662324</v>
       </c>
       <c r="E15">
-        <v>1.012248019331879</v>
+        <v>1.012596452454389</v>
       </c>
       <c r="F15">
-        <v>1.020891662041707</v>
+        <v>1.021171164589351</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.041289549046224</v>
+        <v>1.041466368299816</v>
       </c>
       <c r="J15">
-        <v>1.024011074898147</v>
+        <v>1.024421823637488</v>
       </c>
       <c r="K15">
-        <v>1.028386755039642</v>
+        <v>1.028630495447188</v>
       </c>
       <c r="L15">
-        <v>1.026871928628664</v>
+        <v>1.027214034293392</v>
       </c>
       <c r="M15">
-        <v>1.035360260082481</v>
+        <v>1.035634797399127</v>
       </c>
       <c r="N15">
-        <v>1.011963050561552</v>
+        <v>1.014112438835278</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.03786124421461</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.038078236194651</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.020126080514115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1091,46 +1223,55 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9967503141695873</v>
+        <v>0.997048368417371</v>
       </c>
       <c r="D16">
-        <v>1.015251459329181</v>
+        <v>1.015347520320195</v>
       </c>
       <c r="E16">
-        <v>1.013895567660813</v>
+        <v>1.014138212899166</v>
       </c>
       <c r="F16">
-        <v>1.022515176488374</v>
+        <v>1.022709712373875</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.041776811930331</v>
+        <v>1.041875779849244</v>
       </c>
       <c r="J16">
-        <v>1.025016260775521</v>
+        <v>1.025302423299829</v>
       </c>
       <c r="K16">
-        <v>1.029314812324328</v>
+        <v>1.029409210776778</v>
       </c>
       <c r="L16">
-        <v>1.027982430723814</v>
+        <v>1.028220862712206</v>
       </c>
       <c r="M16">
-        <v>1.036453953249162</v>
+        <v>1.03664518416232</v>
       </c>
       <c r="N16">
-        <v>1.01229735229936</v>
+        <v>1.014139450444424</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.038686921024139</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
+        <v>1.03883807264306</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.020275350311693</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1138,46 +1279,55 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.998008911456294</v>
+        <v>0.9982428485808165</v>
       </c>
       <c r="D17">
-        <v>1.016077821833597</v>
+        <v>1.016096659956454</v>
       </c>
       <c r="E17">
-        <v>1.014780173263322</v>
+        <v>1.014971227275011</v>
       </c>
       <c r="F17">
-        <v>1.023300300339411</v>
+        <v>1.023453341486159</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.042026605088793</v>
+        <v>1.04208686924576</v>
       </c>
       <c r="J17">
-        <v>1.025543819874631</v>
+        <v>1.025768719397123</v>
       </c>
       <c r="K17">
-        <v>1.029809701305948</v>
+        <v>1.029828222478868</v>
       </c>
       <c r="L17">
-        <v>1.028533922110851</v>
+        <v>1.028721751745433</v>
       </c>
       <c r="M17">
-        <v>1.036911763069982</v>
+        <v>1.0370622763015</v>
       </c>
       <c r="N17">
-        <v>1.012464964600221</v>
+        <v>1.014163224445117</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.038919543976989</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
+        <v>1.039038523640355</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.020348442116985</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1185,46 +1335,55 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9985785508892161</v>
+        <v>0.9987908275977376</v>
       </c>
       <c r="D18">
-        <v>1.016426780951805</v>
+        <v>1.016419301487658</v>
       </c>
       <c r="E18">
-        <v>1.015063764591823</v>
+        <v>1.015237799566452</v>
       </c>
       <c r="F18">
-        <v>1.023383109615623</v>
+        <v>1.023522397147499</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.042090449193824</v>
+        <v>1.042137993090388</v>
       </c>
       <c r="J18">
-        <v>1.025695366624709</v>
+        <v>1.025899593968659</v>
       </c>
       <c r="K18">
-        <v>1.029967865560943</v>
+        <v>1.029960509887526</v>
       </c>
       <c r="L18">
-        <v>1.028627446933335</v>
+        <v>1.028798592194871</v>
       </c>
       <c r="M18">
-        <v>1.036810068198655</v>
+        <v>1.036947090918924</v>
       </c>
       <c r="N18">
-        <v>1.012499587560896</v>
+        <v>1.014145401243202</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.038601011256857</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
+        <v>1.038709349416703</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.020358446357798</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1232,46 +1391,55 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9985209823297829</v>
+        <v>0.9987447874284492</v>
       </c>
       <c r="D19">
-        <v>1.016341476607067</v>
+        <v>1.01634972335814</v>
       </c>
       <c r="E19">
-        <v>1.014794476531106</v>
+        <v>1.01497850352033</v>
       </c>
       <c r="F19">
-        <v>1.022815855825482</v>
+        <v>1.022963095952055</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.041987084939159</v>
+        <v>1.042042902745446</v>
       </c>
       <c r="J19">
-        <v>1.025505027091688</v>
+        <v>1.025720394094591</v>
       </c>
       <c r="K19">
-        <v>1.029820909466814</v>
+        <v>1.029829020430717</v>
       </c>
       <c r="L19">
-        <v>1.02829943181532</v>
+        <v>1.028480417478522</v>
       </c>
       <c r="M19">
-        <v>1.036189549928356</v>
+        <v>1.036334405333022</v>
       </c>
       <c r="N19">
-        <v>1.01241486251626</v>
+        <v>1.014070711677232</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.037784084519992</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
+        <v>1.037898653257243</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.020310928424828</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,46 +1447,55 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9967186712224873</v>
+        <v>0.9970436802444339</v>
       </c>
       <c r="D20">
-        <v>1.015051107301038</v>
+        <v>1.015189627697923</v>
       </c>
       <c r="E20">
-        <v>1.01300846246864</v>
+        <v>1.013275716749267</v>
       </c>
       <c r="F20">
-        <v>1.020501750653691</v>
+        <v>1.020715874226182</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.041425709317435</v>
+        <v>1.041546926793477</v>
       </c>
       <c r="J20">
-        <v>1.024376671231285</v>
+        <v>1.024689040654818</v>
       </c>
       <c r="K20">
-        <v>1.028834365244432</v>
+        <v>1.028970542660498</v>
       </c>
       <c r="L20">
-        <v>1.026826366448286</v>
+        <v>1.027089077478476</v>
       </c>
       <c r="M20">
-        <v>1.03419343287618</v>
+        <v>1.034403984700615</v>
       </c>
       <c r="N20">
-        <v>1.012003411965618</v>
+        <v>1.0138323902154</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.035675209995577</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
+        <v>1.035841840432951</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.02010636904749</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1326,46 +1503,55 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9925763991329531</v>
+        <v>0.9931648461924473</v>
       </c>
       <c r="D21">
-        <v>1.012259295559529</v>
+        <v>1.012701950824353</v>
       </c>
       <c r="E21">
-        <v>1.009777418431801</v>
+        <v>1.010260118844049</v>
       </c>
       <c r="F21">
-        <v>1.017207265727678</v>
+        <v>1.017594439156718</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.040456037042916</v>
+        <v>1.040734854703844</v>
       </c>
       <c r="J21">
-        <v>1.022387810733506</v>
+        <v>1.02295114841538</v>
       </c>
       <c r="K21">
-        <v>1.027012075382964</v>
+        <v>1.027446611514298</v>
       </c>
       <c r="L21">
-        <v>1.024575892421929</v>
+        <v>1.025049682853325</v>
       </c>
       <c r="M21">
-        <v>1.031869813229724</v>
+        <v>1.03224997421549</v>
       </c>
       <c r="N21">
-        <v>1.011329644538733</v>
+        <v>1.01377954443701</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.033795178244628</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
+        <v>1.034096052944747</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.019804422775336</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,93 +1559,111 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.989952850582469</v>
+        <v>0.99070751944764</v>
       </c>
       <c r="D22">
-        <v>1.010499326325333</v>
+        <v>1.011133917428742</v>
       </c>
       <c r="E22">
-        <v>1.007758814091173</v>
+        <v>1.008377437034949</v>
       </c>
       <c r="F22">
-        <v>1.015177088234027</v>
+        <v>1.015673456202309</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.039841578387309</v>
+        <v>1.040219748599474</v>
       </c>
       <c r="J22">
-        <v>1.021140446014932</v>
+        <v>1.021861057275615</v>
       </c>
       <c r="K22">
-        <v>1.025865619976712</v>
+        <v>1.026487989591698</v>
       </c>
       <c r="L22">
-        <v>1.023178118553869</v>
+        <v>1.023784742226645</v>
       </c>
       <c r="M22">
-        <v>1.030453762922272</v>
+        <v>1.030940684575437</v>
       </c>
       <c r="N22">
-        <v>1.010908463521904</v>
+        <v>1.013743415977939</v>
       </c>
       <c r="O22">
-        <v>1.029999999999999</v>
+        <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.032674457921993</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
+        <v>1.033059827901637</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.019613840566726</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C23">
-        <v>0.991348246637456</v>
+        <v>0.9920039472279264</v>
       </c>
       <c r="D23">
-        <v>1.011434973675708</v>
+        <v>1.01195911196022</v>
       </c>
       <c r="E23">
-        <v>1.008831713689768</v>
+        <v>1.009369195245981</v>
       </c>
       <c r="F23">
-        <v>1.016255931928249</v>
+        <v>1.016687174901456</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.040169111896199</v>
+        <v>1.040489151772832</v>
       </c>
       <c r="J23">
-        <v>1.021804022068403</v>
+        <v>1.022430990995662</v>
       </c>
       <c r="K23">
-        <v>1.026475609305624</v>
+        <v>1.026989909000024</v>
       </c>
       <c r="L23">
-        <v>1.023921413056425</v>
+        <v>1.024448737585799</v>
       </c>
       <c r="M23">
-        <v>1.031206572411007</v>
+        <v>1.031629819391872</v>
       </c>
       <c r="N23">
-        <v>1.011132529033281</v>
+        <v>1.013721108765953</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.033270262466598</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
+        <v>1.033605237398803</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.019713003257535</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1467,46 +1671,55 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9967416054010394</v>
+        <v>0.9970663379222069</v>
       </c>
       <c r="D24">
-        <v>1.015060552808774</v>
+        <v>1.01519901651093</v>
       </c>
       <c r="E24">
-        <v>1.012994592737974</v>
+        <v>1.013261701377298</v>
       </c>
       <c r="F24">
-        <v>1.020446409438908</v>
+        <v>1.020660417629773</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.04141912058191</v>
+        <v>1.041540330936172</v>
       </c>
       <c r="J24">
-        <v>1.024365664080952</v>
+        <v>1.024677786324729</v>
       </c>
       <c r="K24">
-        <v>1.028828251393817</v>
+        <v>1.028964376136639</v>
       </c>
       <c r="L24">
-        <v>1.02679728801741</v>
+        <v>1.027059861553562</v>
       </c>
       <c r="M24">
-        <v>1.034123731622248</v>
+        <v>1.034334174066508</v>
       </c>
       <c r="N24">
-        <v>1.01199739106386</v>
+        <v>1.013823712834531</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.035579018072282</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
+        <v>1.035745570284915</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.020102363663591</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1514,43 +1727,52 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.002804303624368</v>
+        <v>1.002900010089044</v>
       </c>
       <c r="D25">
-        <v>1.01915313914165</v>
+        <v>1.01896973763797</v>
       </c>
       <c r="E25">
-        <v>1.017705369851852</v>
+        <v>1.017787229218243</v>
       </c>
       <c r="F25">
-        <v>1.025197670745612</v>
+        <v>1.025262390627719</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.042790365036979</v>
+        <v>1.04275788476818</v>
       </c>
       <c r="J25">
-        <v>1.027237658930505</v>
+        <v>1.027330169929155</v>
       </c>
       <c r="K25">
-        <v>1.031461228977898</v>
+        <v>1.031280540793864</v>
       </c>
       <c r="L25">
-        <v>1.030034912426434</v>
+        <v>1.030115556748887</v>
       </c>
       <c r="M25">
-        <v>1.037417024357752</v>
+        <v>1.037480801306685</v>
       </c>
       <c r="N25">
-        <v>1.012966743982758</v>
+        <v>1.014487925092602</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.038185451636022</v>
+        <v>1.038235926975966</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.020559062894291</v>
       </c>
     </row>
   </sheetData>
